--- a/biology/Zoologie/Brassemer_cendré/Brassemer_cendré.xlsx
+++ b/biology/Zoologie/Brassemer_cendré/Brassemer_cendré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brassemer_cendr%C3%A9</t>
+          <t>Brassemer_cendré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tachyeres pteneres
 Le Brassemer cendré (Tachyeres pteneres) est une espèce d'oiseaux appartenant à la famille des Anatidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brassemer_cendr%C3%A9</t>
+          <t>Brassemer_cendré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est souvent appelé « Canard-vapeur », car comme il ne peut décoller, il brasse alors l'eau de ses deux ailes pour se propulser, rappelant le mouvement des roues à aubes des navires vapeurs. Il est appelé Quetro austral en espagnol ou plus communément Pato vapor, localement (au Chili et en Argentine) et Flightless steamer duck (voire Steamer duck), en anglais.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brassemer_cendr%C3%A9</t>
+          <t>Brassemer_cendré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce brassemer mesure entre 74 et 84 cm, le plumage est uniformément gris sauf le dessous qui est blanc. Les pattes sont jaunes et le bec orange.
 Le Brassemer cendré est incapable de voler.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brassemer_cendr%C3%A9</t>
+          <t>Brassemer_cendré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette espèce principalement en Terre de Feu, mais aussi le long de la côte ouest de Patagonie.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brassemer_cendr%C3%A9</t>
+          <t>Brassemer_cendré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit en couples ou en familles. Il se nourrit en plongeant, dans les champs d'algues.
 Le nid est placé dans un buisson près de l'eau.
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Brassemer_cendr%C3%A9</t>
+          <t>Brassemer_cendré</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Populations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La population est comprise entre 10 000 et 100 000 individus, l'espèce n'est pas menacée.
 </t>
